--- a/biology/Médecine/Henri_Ueberschlag/Henri_Ueberschlag.xlsx
+++ b/biology/Médecine/Henri_Ueberschlag/Henri_Ueberschlag.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Ueberschlag, né le 13 mars 1912 à Hamborn-Duisbourg en Allemagne et mort le 15 avril 1976 à Pau, est un psychiatre français.
 Promoteur de l'hôpital psychiatrique ouvert sur le monde, il milite pour la reconnaissance de la maladie et élabore des thérapies de réinsertion sociale fondées sur l'ergothérapie. Il est l'un des précurseurs en France de la prise en charge au sein d'unités spécialisées des enfants malades mentaux.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il grandit en France, dans le Haut-Rhin à Dornach et Mulhouse.
 Bachelier en 1928, il est étudiant de médecine à la faculté de médecine de Strasbourg.
@@ -555,7 +569,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chevalier de la santé Publique en 1952.
 Chevalier de la Légion d’honneur le 30 octobre 1954</t>
